--- a/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
+++ b/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Navn</t>
   </si>
@@ -71,10 +71,13 @@
     <t>implementer</t>
   </si>
   <si>
-    <t>sd for uc-2</t>
-  </si>
-  <si>
-    <t>sd for uc-4</t>
+    <t>ssd for uc-2</t>
+  </si>
+  <si>
+    <t>2015/3/3</t>
+  </si>
+  <si>
+    <t>ssd for uc-4</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -324,13 +327,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
+++ b/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Navn</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>ssd for uc-4</t>
+  </si>
+  <si>
+    <t>2015/3/4</t>
+  </si>
+  <si>
+    <t>test suite oc-5</t>
+  </si>
+  <si>
+    <t>2015/3/5</t>
+  </si>
+  <si>
+    <t>Implementering test case oc-5</t>
+  </si>
+  <si>
+    <t>2015/3/6</t>
+  </si>
+  <si>
+    <t>brugertest af release 0.1</t>
+  </si>
+  <si>
+    <t>facilitator</t>
+  </si>
+  <si>
+    <t>gennemførsel af brugertest</t>
   </si>
 </sst>
 </file>
@@ -208,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -339,6 +363,62 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
+++ b/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Navn</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>gennemførsel af brugertest</t>
+  </si>
+  <si>
+    <t>2015/3/9</t>
+  </si>
+  <si>
+    <t>refactor af v.01</t>
   </si>
 </sst>
 </file>
@@ -232,10 +238,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,7 +412,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -417,6 +423,20 @@
       </c>
       <c r="D14" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
+++ b/08-Project-Management/Tidsregistrering/tidsregistrering (henrik).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Navn</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>refactor af v.01</t>
+  </si>
+  <si>
+    <t>2015/3/10</t>
+  </si>
+  <si>
+    <t>2015/3/11</t>
+  </si>
+  <si>
+    <t>javadoc</t>
+  </si>
+  <si>
+    <t>2015/3/12</t>
+  </si>
+  <si>
+    <t>omplementer</t>
   </si>
 </sst>
 </file>
@@ -238,10 +253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,7 +441,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -437,6 +452,42 @@
       </c>
       <c r="D15" s="0" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
